--- a/biology/Zoologie/Egernia_depressa/Egernia_depressa.xlsx
+++ b/biology/Zoologie/Egernia_depressa/Egernia_depressa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Egernia depressa est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Egernia depressa est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale, dans le Territoire du Nord et en Australie-Méridionale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale, dans le Territoire du Nord et en Australie-Méridionale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un saurien vivipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un saurien vivipare.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique depressa vient du latin depresus, déprimé, en référence à l'aspect aplati de ce saurien[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique depressa vient du latin depresus, déprimé, en référence à l'aspect aplati de ce saurien.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1875 : A list of the saurians of Australia and New Zealand in Richardson &amp; Gray, 1875 : The zoology of the voyage of H.M.S. Erebus and Terror, during the years 1839 to 1843. By authority of the Lords Commissioners of the Admiralty, E. W. Janson, London, vol. 2, p. 9-19 (texte intégral).</t>
         </is>
